--- a/resources/business experiment/price comparison.xlsx
+++ b/resources/business experiment/price comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego-Desktop\Documents\GitHub\v5-mibodega.pe\mibodega\resources\business experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D849EE-8890-4D76-8D0F-B931F062CEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC65DD-A19F-4F26-99A0-17A7D42E49CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>Rewe city</t>
   </si>
@@ -96,16 +96,79 @@
   </si>
   <si>
     <t>Alimentos.pe</t>
+  </si>
+  <si>
+    <t>Bodega 1</t>
+  </si>
+  <si>
+    <t>Bodega 2</t>
+  </si>
+  <si>
+    <t>Bodega 3</t>
+  </si>
+  <si>
+    <t>Leche gloria roja grande</t>
+  </si>
+  <si>
+    <t>Huevos rosado x kg</t>
+  </si>
+  <si>
+    <t>Arroz suelto faraón x kg</t>
+  </si>
+  <si>
+    <t>Lenteja granel x kg</t>
+  </si>
+  <si>
+    <t>Frijol canario granel x kg</t>
+  </si>
+  <si>
+    <t>Aceite Sao 500ml</t>
+  </si>
+  <si>
+    <t>Zanahoria x kg</t>
+  </si>
+  <si>
+    <t>Azúcar rubia x kg</t>
+  </si>
+  <si>
+    <t>Tomate x kg</t>
+  </si>
+  <si>
+    <t>Papaya x kg</t>
+  </si>
+  <si>
+    <t>Platano de seda x mano</t>
+  </si>
+  <si>
+    <t>Products list La Molina</t>
+  </si>
+  <si>
+    <t>Only same product list LM</t>
+  </si>
+  <si>
+    <t>Savings 4%-7,8%</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Vea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +247,57 @@
     <tableColumn id="2" xr3:uid="{0E5FEB48-5D6A-4E09-9A6F-82C0107ED3C4}" name="Ekeda"/>
     <tableColumn id="3" xr3:uid="{198F2575-09FE-498A-ACD1-FF918CB855DC}" name="Rewe city"/>
     <tableColumn id="4" xr3:uid="{E05483EB-F81F-4D55-8F54-DF8E16D913CF}" name="Alimentos.pe"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A047ED3-56CC-4610-A4C6-C401BF9EB217}" name="Tabla153" displayName="Tabla153" ref="A34:D45" totalsRowShown="0">
+  <autoFilter ref="A34:D45" xr:uid="{B35894AA-3B10-4041-B2B6-857B467FE017}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{436E604B-3C45-4A22-8005-838C9D475CDD}" name="Products list La Molina"/>
+    <tableColumn id="2" xr3:uid="{1E541413-C008-4E2A-A607-54907A0EE606}" name="Bodega 1"/>
+    <tableColumn id="3" xr3:uid="{228270B1-723C-44A4-8F65-B4C8ACCE074B}" name="Bodega 2"/>
+    <tableColumn id="4" xr3:uid="{BB4B8AEB-A8C8-46E1-881D-E5A6BCDF3EAE}" name="Bodega 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{190FE278-BD11-4F93-966E-E5FFEB4A50B9}" name="Tabla1536" displayName="Tabla1536" ref="A48:D57" totalsRowShown="0">
+  <autoFilter ref="A48:D57" xr:uid="{E5B3FEA3-28A9-4858-B4B3-F7406C5C57FF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B189D178-B341-41E4-BF9F-92BB16C31A94}" name="Only same product list LM"/>
+    <tableColumn id="2" xr3:uid="{9E85C138-7C10-4477-9D4B-C4F54900C270}" name="Bodega 1"/>
+    <tableColumn id="3" xr3:uid="{0BA1ED16-E9EC-40C0-8D97-2A60D030B3A8}" name="Bodega 2"/>
+    <tableColumn id="4" xr3:uid="{89BD41FE-0F22-42D7-922B-217DA6C0A85D}" name="Bodega 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{64A21205-5330-49CB-817E-2621A61C11BA}" name="Tabla147" displayName="Tabla147" ref="G48:H58" totalsRowCount="1">
+  <autoFilter ref="G48:H57" xr:uid="{D0C58620-E558-481C-A2A1-2C9373033F23}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{55B90C9E-F323-42B8-8E56-61928132C179}" name="Potential savings"/>
+    <tableColumn id="2" xr3:uid="{E8F16B66-EBDF-4166-91F4-6B71FBE06C54}" name="Ekeda" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabla147[Ekeda])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5F37AB7-3FDC-4CED-9213-992B46012E44}" name="Tabla15368" displayName="Tabla15368" ref="A60:C69" totalsRowShown="0">
+  <autoFilter ref="A60:C69" xr:uid="{11572B1A-2C6D-4E52-9BDD-D21286C5CA0B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9C2E60EB-5A34-42AF-8931-7C21B2E063C5}" name="Only same product list LM"/>
+    <tableColumn id="2" xr3:uid="{ADE181B7-F8BD-4972-9BC4-39A8B124E523}" name="Wong"/>
+    <tableColumn id="3" xr3:uid="{44486965-8153-43C4-AD82-8E3AFA66EB2C}" name="Vea"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +578,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,13 +1033,511 @@
         <v>13.96</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>3.3</v>
+      </c>
+      <c r="C35">
+        <v>3.4</v>
+      </c>
+      <c r="D35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>6.8</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6.5</v>
+      </c>
+      <c r="D38">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>3.8</v>
+      </c>
+      <c r="D39">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>2.6</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>3.5</v>
+      </c>
+      <c r="C41">
+        <v>4.2</v>
+      </c>
+      <c r="D41">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>2.5</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>3.8</v>
+      </c>
+      <c r="C44">
+        <v>3.5</v>
+      </c>
+      <c r="D44">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>2.5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>SUM(Tabla153[Bodega 1])</f>
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <f>SUM(Tabla153[Bodega 2])</f>
+        <v>40.4</v>
+      </c>
+      <c r="D46">
+        <f>SUM(Tabla153[Bodega 3])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>3.3</v>
+      </c>
+      <c r="C49">
+        <v>3.4</v>
+      </c>
+      <c r="D49">
+        <v>3.2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>6.8</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>6.5</v>
+      </c>
+      <c r="D51">
+        <v>6.5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3.8</v>
+      </c>
+      <c r="D52">
+        <v>3.8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>3.5</v>
+      </c>
+      <c r="C53">
+        <v>4.2</v>
+      </c>
+      <c r="D53">
+        <v>4.5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>2.5</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>6.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56">
+        <v>3.8</v>
+      </c>
+      <c r="C56">
+        <v>3.5</v>
+      </c>
+      <c r="D56">
+        <v>4.5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>2.5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>SUM(Tabla1536[Bodega 1])</f>
+        <v>39.4</v>
+      </c>
+      <c r="C58">
+        <f>SUM(Tabla1536[Bodega 2])</f>
+        <v>40.4</v>
+      </c>
+      <c r="D58">
+        <f>SUM(Tabla1536[Bodega 3])</f>
+        <v>41</v>
+      </c>
+      <c r="H58">
+        <f>SUM(Tabla147[Ekeda])</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>3.49</v>
+      </c>
+      <c r="C66">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>5.29</v>
+      </c>
+      <c r="C68">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>SUM(Tabla15368[Wong])</f>
+        <v>23.020000000000003</v>
+      </c>
+      <c r="C70">
+        <f>SUM(Tabla15368[Vea])</f>
+        <v>15.68</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>